--- a/performance_tests/performance_tests_overview.xlsx
+++ b/performance_tests/performance_tests_overview.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Discretization</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Lake_Example</t>
-  </si>
-  <si>
     <t>Rows/Columns</t>
   </si>
   <si>
@@ -78,6 +75,30 @@
   </si>
   <si>
     <t>1_1-gridsize.py</t>
+  </si>
+  <si>
+    <t>1.2.</t>
+  </si>
+  <si>
+    <t>Layernumbers</t>
+  </si>
+  <si>
+    <t>lake</t>
+  </si>
+  <si>
+    <t>1_2-layerNumbers.py</t>
+  </si>
+  <si>
+    <t>Layers</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
 </sst>
 </file>
@@ -407,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -418,9 +439,9 @@
     <col min="1" max="1" width="4.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.1640625" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -436,19 +457,19 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -467,22 +488,48 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>14</v>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
